--- a/biology/Médecine/Turbina_corymbosa/Turbina_corymbosa.xlsx
+++ b/biology/Médecine/Turbina_corymbosa/Turbina_corymbosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turbina corymbosa est une espèce de plantes proches des volubilis de la famille des Convolvulaceae. Elle est originaire d'Amérique latine (du nord du Mexique au sud du Pérou) mais est désormais trouvable un peu partout. C'est une plante vivace grimpante à fleur blanche, souvent utilisée comme plante ornementale.
 Le 18 août 1960, Albert Hofmann identifie le principe actif tiré des graines de cette plante, appelées ololiuqui, comme étant de l'ergine, un alcaloïde dérivé de l'ergoline.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Convolvulus corymbosus L.
 Rivea corymbosa (L.) Hallier f.
